--- a/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.26.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.26.xlsx
@@ -79,10 +79,10 @@
     <t>gives-other</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>אתה בחדר הנכון.</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>שלום לך קוראים לי דוק.</t>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -932,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1069,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1212,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1363,10 +1363,10 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1422,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1447,7 +1447,7 @@
         <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1478,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1517,7 +1517,7 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1716,7 +1716,7 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1786,7 +1786,7 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1814,7 +1814,7 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1839,7 +1839,7 @@
         <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2175,7 +2175,7 @@
         <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2234,7 +2234,7 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2273,7 +2273,7 @@
         <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
         <v>44</v>
@@ -2360,7 +2360,7 @@
         <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2374,7 +2374,7 @@
         <v>44</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -2388,7 +2388,7 @@
         <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2402,7 +2402,7 @@
         <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2455,10 +2455,10 @@
         <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2483,7 +2483,7 @@
         <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -2528,7 +2528,7 @@
         <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
